--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>IndentApproval.aspx</t>
   </si>
@@ -51,6 +51,30 @@
   </si>
   <si>
     <t>CapexApprovalHistory.aspx</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>UserRights.aspx</t>
+  </si>
+  <si>
+    <t>EmployeeCompanyMapping.aspx</t>
+  </si>
+  <si>
+    <t>IndentMapping.aspx</t>
+  </si>
+  <si>
+    <t>NfaMapping.aspx</t>
+  </si>
+  <si>
+    <t>VendorMapping.aspx</t>
+  </si>
+  <si>
+    <t>AddCompanyBu.aspx</t>
+  </si>
+  <si>
+    <t>CapexTypeMapping.aspx</t>
   </si>
 </sst>
 </file>
@@ -379,53 +403,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>IndentApproval.aspx</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>CapexTypeMapping.aspx</t>
+  </si>
+  <si>
+    <t>Report Indent</t>
+  </si>
+  <si>
+    <t>NfaReport.aspx</t>
+  </si>
+  <si>
+    <t>IndentMasterReport.aspx</t>
   </si>
 </sst>
 </file>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,9 +423,10 @@
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -426,8 +436,11 @@
       <c r="C1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -437,8 +450,11 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -448,8 +464,11 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -460,7 +479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -468,17 +487,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
